--- a/ig/ch-epl/StructureDefinition-ch-idmp-administrableproductdefinition.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-administrableproductdefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -583,7 +583,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|5.0.0</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -604,7 +604,7 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>http://SMC.ch/ig/idmp/NamingSystem/IDSystem-ch-PhPID</t>
+    <t>http://fhir.ch/ig/ch-epl/sid/phpid</t>
   </si>
   <si>
     <t>http://www.acme.com/identifiers/patient</t>
@@ -667,7 +667,7 @@
     <t>AdministrableProductDefinition.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -739,7 +739,7 @@
     <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administrable-dose-form</t>
+    <t>http://hl7.org/fhir/ValueSet/administrable-dose-form|5.0.0</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Administrable Dose Form</t>
@@ -757,7 +757,7 @@
     <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation</t>
+    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation|5.0.0</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Unit of Presentation</t>
@@ -791,7 +791,7 @@
     <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes|5.0.0</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Ingredient (see also FHIR Ingredient resource)</t>
@@ -800,7 +800,7 @@
     <t>AdministrableProductDefinition.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
+    <t xml:space="preserve">Reference(DeviceDefinition|5.0.0)
 </t>
   </si>
   <si>
@@ -877,7 +877,7 @@
     <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes|5.0.0</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics.Code System (not a one to one map, the resource is more capable)</t>
@@ -887,7 +887,7 @@
   </si>
   <si>
     <t>CodeableConcept
-QuantitydatebooleanmarkdownAttachmentReference(Binary)</t>
+QuantitydatebooleanmarkdownAttachmentReference(Binary|5.0.0)</t>
   </si>
   <si>
     <t>A value for the characteristic</t>
@@ -944,7 +944,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|5.0.0</t>
   </si>
   <si>
     <t>Route of Administration.Route of Administration</t>
@@ -1052,7 +1052,7 @@
     <t>A tissue type of an animal.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/target-species</t>
+    <t>http://hl7.org/fhir/ValueSet/target-species|5.0.0</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod</t>
@@ -1082,7 +1082,7 @@
     <t>Coded expression for the type of tissue for which the withdrawal period applies, e.g. meat, milk.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/animal-tissue-type</t>
+    <t>http://hl7.org/fhir/ValueSet/animal-tissue-type|5.0.0</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.value</t>
@@ -1441,7 +1441,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="94.8046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="45.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
